--- a/Code/Results/Cases/Case_4_246/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_246/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004870283030316</v>
+        <v>1.038545033472623</v>
       </c>
       <c r="D2">
-        <v>1.027704368669586</v>
+        <v>1.046711504663584</v>
       </c>
       <c r="E2">
-        <v>1.013013290390099</v>
+        <v>1.042197612342531</v>
       </c>
       <c r="F2">
-        <v>1.031803767252846</v>
+        <v>1.055272785028723</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051811355034031</v>
+        <v>1.040260252184625</v>
       </c>
       <c r="J2">
-        <v>1.026906294203277</v>
+        <v>1.043641891145105</v>
       </c>
       <c r="K2">
-        <v>1.038790772472727</v>
+        <v>1.049476175024802</v>
       </c>
       <c r="L2">
-        <v>1.02429425822064</v>
+        <v>1.044974979350359</v>
       </c>
       <c r="M2">
-        <v>1.042837116761293</v>
+        <v>1.058013697628278</v>
       </c>
       <c r="N2">
-        <v>1.028364618928844</v>
+        <v>1.045123982337929</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010340201007231</v>
+        <v>1.039679757028968</v>
       </c>
       <c r="D3">
-        <v>1.031994211083775</v>
+        <v>1.047608311872301</v>
       </c>
       <c r="E3">
-        <v>1.017978209382857</v>
+        <v>1.043281222806352</v>
       </c>
       <c r="F3">
-        <v>1.036618755976006</v>
+        <v>1.056303129456566</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053609982688788</v>
+        <v>1.040537057269649</v>
       </c>
       <c r="J3">
-        <v>1.030552896539171</v>
+        <v>1.044420523394394</v>
       </c>
       <c r="K3">
-        <v>1.042233453636837</v>
+        <v>1.05018445889748</v>
       </c>
       <c r="L3">
-        <v>1.0283861095439</v>
+        <v>1.045868657300915</v>
       </c>
       <c r="M3">
-        <v>1.04680358874099</v>
+        <v>1.058856897109628</v>
       </c>
       <c r="N3">
-        <v>1.032016399858326</v>
+        <v>1.045903720334323</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013796791797863</v>
+        <v>1.040413958874661</v>
       </c>
       <c r="D4">
-        <v>1.034705882405611</v>
+        <v>1.048188248346104</v>
       </c>
       <c r="E4">
-        <v>1.021121221255041</v>
+        <v>1.043982703540205</v>
       </c>
       <c r="F4">
-        <v>1.039664691449532</v>
+        <v>1.056969774036463</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054732348167815</v>
+        <v>1.040714385149609</v>
       </c>
       <c r="J4">
-        <v>1.032854039571188</v>
+        <v>1.044923773137249</v>
       </c>
       <c r="K4">
-        <v>1.04440273281502</v>
+        <v>1.050641776001725</v>
       </c>
       <c r="L4">
-        <v>1.030971243552601</v>
+        <v>1.046446647016822</v>
       </c>
       <c r="M4">
-        <v>1.049306854740325</v>
+        <v>1.059401839922814</v>
       </c>
       <c r="N4">
-        <v>1.034320810777393</v>
+        <v>1.046407684749536</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015230955065286</v>
+        <v>1.040722608642757</v>
       </c>
       <c r="D5">
-        <v>1.035831094250349</v>
+        <v>1.048431967954657</v>
       </c>
       <c r="E5">
-        <v>1.022426562407252</v>
+        <v>1.044277681174757</v>
       </c>
       <c r="F5">
-        <v>1.040929174001915</v>
+        <v>1.05725001782769</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055194552977718</v>
+        <v>1.040788506752245</v>
       </c>
       <c r="J5">
-        <v>1.033807977083475</v>
+        <v>1.04513520138069</v>
       </c>
       <c r="K5">
-        <v>1.045301223677291</v>
+        <v>1.05083379519859</v>
       </c>
       <c r="L5">
-        <v>1.032043639335698</v>
+        <v>1.046689567253874</v>
       </c>
       <c r="M5">
-        <v>1.050344632304429</v>
+        <v>1.059630775099488</v>
       </c>
       <c r="N5">
-        <v>1.035276102990366</v>
+        <v>1.046619413245333</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015470667368617</v>
+        <v>1.040774431814512</v>
       </c>
       <c r="D6">
-        <v>1.036019172136527</v>
+        <v>1.048472884523564</v>
       </c>
       <c r="E6">
-        <v>1.022644817009431</v>
+        <v>1.044327213634115</v>
       </c>
       <c r="F6">
-        <v>1.041140564551191</v>
+        <v>1.057297071199103</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055271602136224</v>
+        <v>1.040800927051948</v>
       </c>
       <c r="J6">
-        <v>1.033967372750025</v>
+        <v>1.045170693031804</v>
       </c>
       <c r="K6">
-        <v>1.045451308066808</v>
+        <v>1.050866022176048</v>
       </c>
       <c r="L6">
-        <v>1.032222871542943</v>
+        <v>1.046730350731937</v>
       </c>
       <c r="M6">
-        <v>1.050518039511282</v>
+        <v>1.059669205014593</v>
       </c>
       <c r="N6">
-        <v>1.035435725017045</v>
+        <v>1.046654955298663</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01381602869407</v>
+        <v>1.040418083100945</v>
       </c>
       <c r="D7">
-        <v>1.034720974851443</v>
+        <v>1.048191505276189</v>
       </c>
       <c r="E7">
-        <v>1.021138725202616</v>
+        <v>1.043986644750116</v>
       </c>
       <c r="F7">
-        <v>1.039681649671699</v>
+        <v>1.056973518721013</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054738561669538</v>
+        <v>1.040715377244145</v>
       </c>
       <c r="J7">
-        <v>1.032866838352099</v>
+        <v>1.04492659879349</v>
       </c>
       <c r="K7">
-        <v>1.044414790799234</v>
+        <v>1.050644342702462</v>
       </c>
       <c r="L7">
-        <v>1.030985628770366</v>
+        <v>1.046449893190381</v>
       </c>
       <c r="M7">
-        <v>1.049320778207587</v>
+        <v>1.059404899589652</v>
       </c>
       <c r="N7">
-        <v>1.034333627734041</v>
+        <v>1.046410514418532</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C8">
-        <v>1.00673653514221</v>
+        <v>1.038928527488995</v>
       </c>
       <c r="D8">
-        <v>1.029167783472116</v>
+        <v>1.047014658914671</v>
       </c>
       <c r="E8">
-        <v>1.014706050536323</v>
+        <v>1.04256375912986</v>
       </c>
       <c r="F8">
-        <v>1.033445849939826</v>
+        <v>1.055621006646839</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052427975765975</v>
+        <v>1.040354169013944</v>
       </c>
       <c r="J8">
-        <v>1.028151113317542</v>
+        <v>1.043905153280715</v>
       </c>
       <c r="K8">
-        <v>1.039966637688442</v>
+        <v>1.049715747893336</v>
       </c>
       <c r="L8">
-        <v>1.025690436574564</v>
+        <v>1.045277060098</v>
       </c>
       <c r="M8">
-        <v>1.044191060715574</v>
+        <v>1.058298798308887</v>
       </c>
       <c r="N8">
-        <v>1.029611205829034</v>
+        <v>1.045387618335968</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.993586854898727</v>
+        <v>1.036303390446635</v>
       </c>
       <c r="D9">
-        <v>1.018863079556245</v>
+        <v>1.044938166030716</v>
       </c>
       <c r="E9">
-        <v>1.002804527710049</v>
+        <v>1.040058827633832</v>
       </c>
       <c r="F9">
-        <v>1.021892380035812</v>
+        <v>1.053237264669981</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048024853851315</v>
+        <v>1.039704016474935</v>
       </c>
       <c r="J9">
-        <v>1.019368128292571</v>
+        <v>1.042100800566902</v>
       </c>
       <c r="K9">
-        <v>1.031657354124075</v>
+        <v>1.048071859418064</v>
       </c>
       <c r="L9">
-        <v>1.015852266696756</v>
+        <v>1.043208221594899</v>
       </c>
       <c r="M9">
-        <v>1.034639980619224</v>
+        <v>1.056344618891654</v>
       </c>
       <c r="N9">
-        <v>1.020815747957905</v>
+        <v>1.04358070323434</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9843053893874324</v>
+        <v>1.034553002282281</v>
       </c>
       <c r="D10">
-        <v>1.011601802003516</v>
+        <v>1.043551993294487</v>
       </c>
       <c r="E10">
-        <v>0.994439333915475</v>
+        <v>1.038390442821604</v>
       </c>
       <c r="F10">
-        <v>1.013762446952702</v>
+        <v>1.05164779480355</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044845311156758</v>
+        <v>1.039261399945553</v>
       </c>
       <c r="J10">
-        <v>1.013155840148343</v>
+        <v>1.040894895729967</v>
       </c>
       <c r="K10">
-        <v>1.025764694939291</v>
+        <v>1.046970824719328</v>
       </c>
       <c r="L10">
-        <v>1.008909719004642</v>
+        <v>1.041827522310602</v>
       </c>
       <c r="M10">
-        <v>1.027887583987345</v>
+        <v>1.05503840171204</v>
       </c>
       <c r="N10">
-        <v>1.014594637651953</v>
+        <v>1.042373085874216</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9801489903211268</v>
+        <v>1.033794979874562</v>
       </c>
       <c r="D11">
-        <v>1.008354249299212</v>
+        <v>1.042951326154262</v>
       </c>
       <c r="E11">
-        <v>0.9907025072590925</v>
+        <v>1.037668379011511</v>
       </c>
       <c r="F11">
-        <v>1.010128879738369</v>
+        <v>1.050959460094206</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043405368520284</v>
+        <v>1.039067563969267</v>
       </c>
       <c r="J11">
-        <v>1.010371564847687</v>
+        <v>1.040372007813037</v>
       </c>
       <c r="K11">
-        <v>1.023120317896297</v>
+        <v>1.046492849844693</v>
       </c>
       <c r="L11">
-        <v>1.005801916779776</v>
+        <v>1.041229308607544</v>
       </c>
       <c r="M11">
-        <v>1.024862275191471</v>
+        <v>1.054471978180415</v>
       </c>
       <c r="N11">
-        <v>1.011806408361009</v>
+        <v>1.041849455396469</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9785830278081586</v>
+        <v>1.033513401295211</v>
       </c>
       <c r="D12">
-        <v>1.007131448970736</v>
+        <v>1.042728144484458</v>
       </c>
       <c r="E12">
-        <v>0.9892960933745676</v>
+        <v>1.037400225404532</v>
       </c>
       <c r="F12">
-        <v>1.008761089583054</v>
+        <v>1.050703768920865</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042860523008368</v>
+        <v>1.038995237000792</v>
       </c>
       <c r="J12">
-        <v>1.009322287173079</v>
+        <v>1.04017767473315</v>
       </c>
       <c r="K12">
-        <v>1.022123285267806</v>
+        <v>1.046315125102965</v>
       </c>
       <c r="L12">
-        <v>1.004631277228085</v>
+        <v>1.041007050410193</v>
       </c>
       <c r="M12">
-        <v>1.023722344007107</v>
+        <v>1.054261459228707</v>
       </c>
       <c r="N12">
-        <v>1.010755640591749</v>
+        <v>1.041654846341318</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9789199562739901</v>
+        <v>1.033573801570936</v>
       </c>
       <c r="D13">
-        <v>1.00739450786344</v>
+        <v>1.04277602075318</v>
       </c>
       <c r="E13">
-        <v>0.9895986259771589</v>
+        <v>1.037457742874793</v>
       </c>
       <c r="F13">
-        <v>1.009055324081831</v>
+        <v>1.050758616141385</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042977854561091</v>
+        <v>1.039010766210174</v>
       </c>
       <c r="J13">
-        <v>1.009548058322641</v>
+        <v>1.040219364790502</v>
       </c>
       <c r="K13">
-        <v>1.022337836024501</v>
+        <v>1.046353255977149</v>
       </c>
       <c r="L13">
-        <v>1.004883136271449</v>
+        <v>1.041054728046782</v>
       </c>
       <c r="M13">
-        <v>1.023967612244105</v>
+        <v>1.054306621877743</v>
       </c>
       <c r="N13">
-        <v>1.01098173236224</v>
+        <v>1.041696595603334</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9800200067999224</v>
+        <v>1.033771704821509</v>
       </c>
       <c r="D14">
-        <v>1.008253515132809</v>
+        <v>1.042932879259184</v>
       </c>
       <c r="E14">
-        <v>0.9905866349107612</v>
+        <v>1.037646212272828</v>
       </c>
       <c r="F14">
-        <v>1.010016194192541</v>
+        <v>1.050938324850044</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043360538160952</v>
+        <v>1.039061592084294</v>
       </c>
       <c r="J14">
-        <v>1.010285144243978</v>
+        <v>1.040355946411568</v>
       </c>
       <c r="K14">
-        <v>1.02303820981835</v>
+        <v>1.046478162809428</v>
       </c>
       <c r="L14">
-        <v>1.005705489179633</v>
+        <v>1.041210937801141</v>
       </c>
       <c r="M14">
-        <v>1.024768384329804</v>
+        <v>1.054454579150774</v>
       </c>
       <c r="N14">
-        <v>1.01171986503013</v>
+        <v>1.041833371185967</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9806948117458572</v>
+        <v>1.03389363747668</v>
       </c>
       <c r="D15">
-        <v>1.008780558616935</v>
+        <v>1.043029516055809</v>
       </c>
       <c r="E15">
-        <v>0.9911929063293855</v>
+        <v>1.037762341496298</v>
       </c>
       <c r="F15">
-        <v>1.010605781970412</v>
+        <v>1.051049047579144</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04359498328911</v>
+        <v>1.039092864161476</v>
       </c>
       <c r="J15">
-        <v>1.010737261367601</v>
+        <v>1.040440084365198</v>
       </c>
       <c r="K15">
-        <v>1.023467746331352</v>
+        <v>1.046555097692649</v>
       </c>
       <c r="L15">
-        <v>1.006209981658482</v>
+        <v>1.041307176480238</v>
       </c>
       <c r="M15">
-        <v>1.025259590347574</v>
+        <v>1.054545724062241</v>
       </c>
       <c r="N15">
-        <v>1.012172624211927</v>
+        <v>1.041917628625142</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9845782198500024</v>
+        <v>1.034603307661585</v>
       </c>
       <c r="D16">
-        <v>1.01181507137406</v>
+        <v>1.043591848192205</v>
       </c>
       <c r="E16">
-        <v>0.994684822161196</v>
+        <v>1.038438371296444</v>
       </c>
       <c r="F16">
-        <v>1.014001116452176</v>
+        <v>1.05169347550986</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044939503036872</v>
+        <v>1.039274218258486</v>
       </c>
       <c r="J16">
-        <v>1.013338560861666</v>
+        <v>1.040929582793371</v>
       </c>
       <c r="K16">
-        <v>1.025938167235605</v>
+        <v>1.047002520611512</v>
       </c>
       <c r="L16">
-        <v>1.009113749419896</v>
+        <v>1.041867216106965</v>
       </c>
       <c r="M16">
-        <v>1.028086146463506</v>
+        <v>1.055075976004962</v>
       </c>
       <c r="N16">
-        <v>1.014777617849647</v>
+        <v>1.04240782219723</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9869764006824709</v>
+        <v>1.035048439215466</v>
       </c>
       <c r="D17">
-        <v>1.013690196965417</v>
+        <v>1.043944464909154</v>
       </c>
       <c r="E17">
-        <v>0.996843723732907</v>
+        <v>1.038862522224616</v>
       </c>
       <c r="F17">
-        <v>1.016099847477747</v>
+        <v>1.05209768539758</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045765633858049</v>
+        <v>1.039387393133757</v>
       </c>
       <c r="J17">
-        <v>1.014944423009057</v>
+        <v>1.041236438206313</v>
       </c>
       <c r="K17">
-        <v>1.027462371105838</v>
+        <v>1.04728285041639</v>
       </c>
       <c r="L17">
-        <v>1.010907321157483</v>
+        <v>1.042218416856808</v>
       </c>
       <c r="M17">
-        <v>1.029831356371863</v>
+        <v>1.055408368449536</v>
       </c>
       <c r="N17">
-        <v>1.016385760505482</v>
+        <v>1.042715113380055</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9883620595623324</v>
+        <v>1.035308068059567</v>
       </c>
       <c r="D18">
-        <v>1.014774022977273</v>
+        <v>1.044150097337237</v>
       </c>
       <c r="E18">
-        <v>0.9980919971538781</v>
+        <v>1.039109956858053</v>
       </c>
       <c r="F18">
-        <v>1.017313154197422</v>
+        <v>1.052333446133116</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046241441695112</v>
+        <v>1.039453195784203</v>
       </c>
       <c r="J18">
-        <v>1.01587206049504</v>
+        <v>1.041415352041223</v>
       </c>
       <c r="K18">
-        <v>1.028342519080537</v>
+        <v>1.047446244401209</v>
       </c>
       <c r="L18">
-        <v>1.011943746688417</v>
+        <v>1.042423231446617</v>
       </c>
       <c r="M18">
-        <v>1.030839585252747</v>
+        <v>1.055602167970978</v>
       </c>
       <c r="N18">
-        <v>1.017314715343097</v>
+        <v>1.042894281293131</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9888323429625893</v>
+        <v>1.035396593324674</v>
       </c>
       <c r="D19">
-        <v>1.015141928429102</v>
+        <v>1.044220205406219</v>
       </c>
       <c r="E19">
-        <v>0.9985157979564019</v>
+        <v>1.039194331559707</v>
       </c>
       <c r="F19">
-        <v>1.017725052554855</v>
+        <v>1.052413833098303</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046402666265451</v>
+        <v>1.039475597113913</v>
       </c>
       <c r="J19">
-        <v>1.01618685463601</v>
+        <v>1.041476345224506</v>
       </c>
       <c r="K19">
-        <v>1.028641142731507</v>
+        <v>1.047501937583435</v>
       </c>
       <c r="L19">
-        <v>1.012295518650671</v>
+        <v>1.042493062034308</v>
       </c>
       <c r="M19">
-        <v>1.031181743683352</v>
+        <v>1.055668235149618</v>
       </c>
       <c r="N19">
-        <v>1.017629956527854</v>
+        <v>1.042955361093731</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9867204697003079</v>
+        <v>1.035000681738516</v>
       </c>
       <c r="D20">
-        <v>1.013490044893419</v>
+        <v>1.043906636915481</v>
       </c>
       <c r="E20">
-        <v>0.996613237567615</v>
+        <v>1.038817011273079</v>
       </c>
       <c r="F20">
-        <v>1.015875803209285</v>
+        <v>1.052054318337936</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045677628121699</v>
+        <v>1.039375272297907</v>
       </c>
       <c r="J20">
-        <v>1.014773069985662</v>
+        <v>1.041203522741683</v>
       </c>
       <c r="K20">
-        <v>1.027299764337268</v>
+        <v>1.047252785852646</v>
       </c>
       <c r="L20">
-        <v>1.010715901678282</v>
+        <v>1.042180739950828</v>
       </c>
       <c r="M20">
-        <v>1.029645124122522</v>
+        <v>1.055372714098107</v>
       </c>
       <c r="N20">
-        <v>1.01621416414114</v>
+        <v>1.042682151171689</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9796966913633538</v>
+        <v>1.033713427680339</v>
       </c>
       <c r="D21">
-        <v>1.008001023124181</v>
+        <v>1.042886690194556</v>
       </c>
       <c r="E21">
-        <v>0.9902962084466957</v>
+        <v>1.037590711274143</v>
       </c>
       <c r="F21">
-        <v>1.009733751509588</v>
+        <v>1.050885405477197</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043248127252578</v>
+        <v>1.039046634177077</v>
       </c>
       <c r="J21">
-        <v>1.010068514590089</v>
+        <v>1.040315729548209</v>
       </c>
       <c r="K21">
-        <v>1.022832382749731</v>
+        <v>1.046441385931506</v>
       </c>
       <c r="L21">
-        <v>1.005463784122231</v>
+        <v>1.0411649394451</v>
       </c>
       <c r="M21">
-        <v>1.024533032078296</v>
+        <v>1.054411012848775</v>
       </c>
       <c r="N21">
-        <v>1.011502927737285</v>
+        <v>1.04179309721005</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9751519414737375</v>
+        <v>1.032903990727745</v>
       </c>
       <c r="D22">
-        <v>1.004453756475963</v>
+        <v>1.042245020569801</v>
       </c>
       <c r="E22">
-        <v>0.98621738696815</v>
+        <v>1.036819994319823</v>
       </c>
       <c r="F22">
-        <v>1.00576653359895</v>
+        <v>1.050150388054789</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041662545912363</v>
+        <v>1.038838110565842</v>
       </c>
       <c r="J22">
-        <v>1.00702285290501</v>
+        <v>1.039756906494173</v>
       </c>
       <c r="K22">
-        <v>1.019937496907182</v>
+        <v>1.045930164209693</v>
       </c>
       <c r="L22">
-        <v>1.002066915509225</v>
+        <v>1.04052594686246</v>
       </c>
       <c r="M22">
-        <v>1.021224613402614</v>
+        <v>1.053805635287826</v>
       </c>
       <c r="N22">
-        <v>1.00845294086327</v>
+        <v>1.041233480563179</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.977573906658298</v>
+        <v>1.033333097487055</v>
       </c>
       <c r="D23">
-        <v>1.006343690581307</v>
+        <v>1.042585218706962</v>
       </c>
       <c r="E23">
-        <v>0.9883902120421124</v>
+        <v>1.037228537145142</v>
       </c>
       <c r="F23">
-        <v>1.007880023286255</v>
+        <v>1.050540042000098</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042508772632643</v>
+        <v>1.038948832617161</v>
       </c>
       <c r="J23">
-        <v>1.008646054223452</v>
+        <v>1.040053209291477</v>
       </c>
       <c r="K23">
-        <v>1.021480592109202</v>
+        <v>1.046201273341715</v>
       </c>
       <c r="L23">
-        <v>1.003876987516471</v>
+        <v>1.040864719323103</v>
       </c>
       <c r="M23">
-        <v>1.022987741907762</v>
+        <v>1.054126625564379</v>
       </c>
       <c r="N23">
-        <v>1.010078447313768</v>
+        <v>1.041530204144441</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9868361544551417</v>
+        <v>1.035022261313609</v>
       </c>
       <c r="D24">
-        <v>1.013580515530246</v>
+        <v>1.043923729889997</v>
       </c>
       <c r="E24">
-        <v>0.9967174181820113</v>
+        <v>1.038837575605967</v>
       </c>
       <c r="F24">
-        <v>1.015977072611234</v>
+        <v>1.052073914070113</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045717412817356</v>
+        <v>1.03938074983169</v>
       </c>
       <c r="J24">
-        <v>1.014850524894533</v>
+        <v>1.041218396038545</v>
       </c>
       <c r="K24">
-        <v>1.027373266760357</v>
+        <v>1.047266371098187</v>
       </c>
       <c r="L24">
-        <v>1.010802425910741</v>
+        <v>1.04219776463032</v>
       </c>
       <c r="M24">
-        <v>1.02972930443524</v>
+        <v>1.055388825009796</v>
       </c>
       <c r="N24">
-        <v>1.016291729044865</v>
+        <v>1.042697045590339</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9970723318638053</v>
+        <v>1.036982099081089</v>
       </c>
       <c r="D25">
-        <v>1.021592784778393</v>
+        <v>1.045475314051032</v>
       </c>
       <c r="E25">
-        <v>1.005953382251692</v>
+        <v>1.040706133824381</v>
       </c>
       <c r="F25">
-        <v>1.024950880539186</v>
+        <v>1.053853572677482</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049204537840941</v>
+        <v>1.039873714851434</v>
       </c>
       <c r="J25">
-        <v>1.02169862702471</v>
+        <v>1.042567796739132</v>
       </c>
       <c r="K25">
-        <v>1.033864899137804</v>
+        <v>1.048497743828878</v>
       </c>
       <c r="L25">
-        <v>1.01845997729899</v>
+        <v>1.043743323930611</v>
       </c>
       <c r="M25">
-        <v>1.037173831135472</v>
+        <v>1.05685042505555</v>
       </c>
       <c r="N25">
-        <v>1.023149556265555</v>
+        <v>1.044048362594699</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_246/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_246/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038545033472623</v>
+        <v>1.004870283030317</v>
       </c>
       <c r="D2">
-        <v>1.046711504663584</v>
+        <v>1.027704368669586</v>
       </c>
       <c r="E2">
-        <v>1.042197612342531</v>
+        <v>1.013013290390099</v>
       </c>
       <c r="F2">
-        <v>1.055272785028723</v>
+        <v>1.031803767252846</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040260252184625</v>
+        <v>1.051811355034032</v>
       </c>
       <c r="J2">
-        <v>1.043641891145105</v>
+        <v>1.026906294203277</v>
       </c>
       <c r="K2">
-        <v>1.049476175024802</v>
+        <v>1.038790772472727</v>
       </c>
       <c r="L2">
-        <v>1.044974979350359</v>
+        <v>1.02429425822064</v>
       </c>
       <c r="M2">
-        <v>1.058013697628278</v>
+        <v>1.042837116761294</v>
       </c>
       <c r="N2">
-        <v>1.045123982337929</v>
+        <v>1.028364618928844</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039679757028968</v>
+        <v>1.010340201007233</v>
       </c>
       <c r="D3">
-        <v>1.047608311872301</v>
+        <v>1.031994211083777</v>
       </c>
       <c r="E3">
-        <v>1.043281222806352</v>
+        <v>1.017978209382858</v>
       </c>
       <c r="F3">
-        <v>1.056303129456566</v>
+        <v>1.036618755976007</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040537057269649</v>
+        <v>1.053609982688789</v>
       </c>
       <c r="J3">
-        <v>1.044420523394394</v>
+        <v>1.030552896539173</v>
       </c>
       <c r="K3">
-        <v>1.05018445889748</v>
+        <v>1.042233453636838</v>
       </c>
       <c r="L3">
-        <v>1.045868657300915</v>
+        <v>1.028386109543902</v>
       </c>
       <c r="M3">
-        <v>1.058856897109628</v>
+        <v>1.046803588740991</v>
       </c>
       <c r="N3">
-        <v>1.045903720334323</v>
+        <v>1.032016399858327</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040413958874661</v>
+        <v>1.013796791797863</v>
       </c>
       <c r="D4">
-        <v>1.048188248346104</v>
+        <v>1.034705882405612</v>
       </c>
       <c r="E4">
-        <v>1.043982703540205</v>
+        <v>1.021121221255041</v>
       </c>
       <c r="F4">
-        <v>1.056969774036463</v>
+        <v>1.039664691449532</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040714385149609</v>
+        <v>1.054732348167815</v>
       </c>
       <c r="J4">
-        <v>1.044923773137249</v>
+        <v>1.032854039571189</v>
       </c>
       <c r="K4">
-        <v>1.050641776001725</v>
+        <v>1.044402732815021</v>
       </c>
       <c r="L4">
-        <v>1.046446647016822</v>
+        <v>1.030971243552601</v>
       </c>
       <c r="M4">
-        <v>1.059401839922814</v>
+        <v>1.049306854740326</v>
       </c>
       <c r="N4">
-        <v>1.046407684749536</v>
+        <v>1.034320810777394</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040722608642757</v>
+        <v>1.015230955065287</v>
       </c>
       <c r="D5">
-        <v>1.048431967954657</v>
+        <v>1.035831094250349</v>
       </c>
       <c r="E5">
-        <v>1.044277681174757</v>
+        <v>1.022426562407253</v>
       </c>
       <c r="F5">
-        <v>1.05725001782769</v>
+        <v>1.040929174001916</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040788506752245</v>
+        <v>1.055194552977719</v>
       </c>
       <c r="J5">
-        <v>1.04513520138069</v>
+        <v>1.033807977083475</v>
       </c>
       <c r="K5">
-        <v>1.05083379519859</v>
+        <v>1.045301223677291</v>
       </c>
       <c r="L5">
-        <v>1.046689567253874</v>
+        <v>1.032043639335698</v>
       </c>
       <c r="M5">
-        <v>1.059630775099488</v>
+        <v>1.050344632304429</v>
       </c>
       <c r="N5">
-        <v>1.046619413245333</v>
+        <v>1.035276102990366</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040774431814512</v>
+        <v>1.015470667368617</v>
       </c>
       <c r="D6">
-        <v>1.048472884523564</v>
+        <v>1.036019172136527</v>
       </c>
       <c r="E6">
-        <v>1.044327213634115</v>
+        <v>1.022644817009431</v>
       </c>
       <c r="F6">
-        <v>1.057297071199103</v>
+        <v>1.041140564551191</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040800927051948</v>
+        <v>1.055271602136224</v>
       </c>
       <c r="J6">
-        <v>1.045170693031804</v>
+        <v>1.033967372750025</v>
       </c>
       <c r="K6">
-        <v>1.050866022176048</v>
+        <v>1.045451308066807</v>
       </c>
       <c r="L6">
-        <v>1.046730350731937</v>
+        <v>1.032222871542943</v>
       </c>
       <c r="M6">
-        <v>1.059669205014593</v>
+        <v>1.050518039511281</v>
       </c>
       <c r="N6">
-        <v>1.046654955298663</v>
+        <v>1.035435725017045</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040418083100945</v>
+        <v>1.013816028694071</v>
       </c>
       <c r="D7">
-        <v>1.048191505276189</v>
+        <v>1.034720974851445</v>
       </c>
       <c r="E7">
-        <v>1.043986644750116</v>
+        <v>1.021138725202617</v>
       </c>
       <c r="F7">
-        <v>1.056973518721013</v>
+        <v>1.039681649671701</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040715377244145</v>
+        <v>1.054738561669539</v>
       </c>
       <c r="J7">
-        <v>1.04492659879349</v>
+        <v>1.0328668383521</v>
       </c>
       <c r="K7">
-        <v>1.050644342702462</v>
+        <v>1.044414790799236</v>
       </c>
       <c r="L7">
-        <v>1.046449893190381</v>
+        <v>1.030985628770367</v>
       </c>
       <c r="M7">
-        <v>1.059404899589652</v>
+        <v>1.049320778207589</v>
       </c>
       <c r="N7">
-        <v>1.046410514418532</v>
+        <v>1.034333627734043</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038928527488995</v>
+        <v>1.006736535142211</v>
       </c>
       <c r="D8">
-        <v>1.047014658914671</v>
+        <v>1.029167783472117</v>
       </c>
       <c r="E8">
-        <v>1.04256375912986</v>
+        <v>1.014706050536323</v>
       </c>
       <c r="F8">
-        <v>1.055621006646839</v>
+        <v>1.033445849939826</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040354169013944</v>
+        <v>1.052427975765976</v>
       </c>
       <c r="J8">
-        <v>1.043905153280715</v>
+        <v>1.028151113317542</v>
       </c>
       <c r="K8">
-        <v>1.049715747893336</v>
+        <v>1.039966637688442</v>
       </c>
       <c r="L8">
-        <v>1.045277060098</v>
+        <v>1.025690436574565</v>
       </c>
       <c r="M8">
-        <v>1.058298798308887</v>
+        <v>1.044191060715574</v>
       </c>
       <c r="N8">
-        <v>1.045387618335968</v>
+        <v>1.029611205829034</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036303390446635</v>
+        <v>0.9935868548987261</v>
       </c>
       <c r="D9">
-        <v>1.044938166030716</v>
+        <v>1.018863079556244</v>
       </c>
       <c r="E9">
-        <v>1.040058827633832</v>
+        <v>1.002804527710049</v>
       </c>
       <c r="F9">
-        <v>1.053237264669981</v>
+        <v>1.02189238003581</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039704016474935</v>
+        <v>1.048024853851314</v>
       </c>
       <c r="J9">
-        <v>1.042100800566902</v>
+        <v>1.01936812829257</v>
       </c>
       <c r="K9">
-        <v>1.048071859418064</v>
+        <v>1.031657354124074</v>
       </c>
       <c r="L9">
-        <v>1.043208221594899</v>
+        <v>1.015852266696756</v>
       </c>
       <c r="M9">
-        <v>1.056344618891654</v>
+        <v>1.034639980619223</v>
       </c>
       <c r="N9">
-        <v>1.04358070323434</v>
+        <v>1.020815747957904</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034553002282281</v>
+        <v>0.9843053893874328</v>
       </c>
       <c r="D10">
-        <v>1.043551993294487</v>
+        <v>1.011601802003517</v>
       </c>
       <c r="E10">
-        <v>1.038390442821604</v>
+        <v>0.9944393339154753</v>
       </c>
       <c r="F10">
-        <v>1.05164779480355</v>
+        <v>1.013762446952703</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039261399945553</v>
+        <v>1.044845311156758</v>
       </c>
       <c r="J10">
-        <v>1.040894895729967</v>
+        <v>1.013155840148344</v>
       </c>
       <c r="K10">
-        <v>1.046970824719328</v>
+        <v>1.025764694939292</v>
       </c>
       <c r="L10">
-        <v>1.041827522310602</v>
+        <v>1.008909719004642</v>
       </c>
       <c r="M10">
-        <v>1.05503840171204</v>
+        <v>1.027887583987346</v>
       </c>
       <c r="N10">
-        <v>1.042373085874216</v>
+        <v>1.014594637651953</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033794979874562</v>
+        <v>0.9801489903211275</v>
       </c>
       <c r="D11">
-        <v>1.042951326154262</v>
+        <v>1.008354249299212</v>
       </c>
       <c r="E11">
-        <v>1.037668379011511</v>
+        <v>0.990702507259093</v>
       </c>
       <c r="F11">
-        <v>1.050959460094206</v>
+        <v>1.01012887973837</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039067563969267</v>
+        <v>1.043405368520284</v>
       </c>
       <c r="J11">
-        <v>1.040372007813037</v>
+        <v>1.010371564847688</v>
       </c>
       <c r="K11">
-        <v>1.046492849844693</v>
+        <v>1.023120317896298</v>
       </c>
       <c r="L11">
-        <v>1.041229308607544</v>
+        <v>1.005801916779777</v>
       </c>
       <c r="M11">
-        <v>1.054471978180415</v>
+        <v>1.024862275191471</v>
       </c>
       <c r="N11">
-        <v>1.041849455396469</v>
+        <v>1.01180640836101</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033513401295211</v>
+        <v>0.978583027808159</v>
       </c>
       <c r="D12">
-        <v>1.042728144484458</v>
+        <v>1.007131448970737</v>
       </c>
       <c r="E12">
-        <v>1.037400225404532</v>
+        <v>0.9892960933745681</v>
       </c>
       <c r="F12">
-        <v>1.050703768920865</v>
+        <v>1.008761089583055</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038995237000792</v>
+        <v>1.042860523008368</v>
       </c>
       <c r="J12">
-        <v>1.04017767473315</v>
+        <v>1.00932228717308</v>
       </c>
       <c r="K12">
-        <v>1.046315125102965</v>
+        <v>1.022123285267806</v>
       </c>
       <c r="L12">
-        <v>1.041007050410193</v>
+        <v>1.004631277228085</v>
       </c>
       <c r="M12">
-        <v>1.054261459228707</v>
+        <v>1.023722344007107</v>
       </c>
       <c r="N12">
-        <v>1.041654846341318</v>
+        <v>1.01075564059175</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033573801570936</v>
+        <v>0.9789199562739889</v>
       </c>
       <c r="D13">
-        <v>1.04277602075318</v>
+        <v>1.007394507863439</v>
       </c>
       <c r="E13">
-        <v>1.037457742874793</v>
+        <v>0.9895986259771573</v>
       </c>
       <c r="F13">
-        <v>1.050758616141385</v>
+        <v>1.00905532408183</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039010766210174</v>
+        <v>1.04297785456109</v>
       </c>
       <c r="J13">
-        <v>1.040219364790502</v>
+        <v>1.00954805832264</v>
       </c>
       <c r="K13">
-        <v>1.046353255977149</v>
+        <v>1.0223378360245</v>
       </c>
       <c r="L13">
-        <v>1.041054728046782</v>
+        <v>1.004883136271447</v>
       </c>
       <c r="M13">
-        <v>1.054306621877743</v>
+        <v>1.023967612244103</v>
       </c>
       <c r="N13">
-        <v>1.041696595603334</v>
+        <v>1.010981732362239</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033771704821509</v>
+        <v>0.9800200067999217</v>
       </c>
       <c r="D14">
-        <v>1.042932879259184</v>
+        <v>1.008253515132808</v>
       </c>
       <c r="E14">
-        <v>1.037646212272828</v>
+        <v>0.9905866349107604</v>
       </c>
       <c r="F14">
-        <v>1.050938324850044</v>
+        <v>1.010016194192541</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039061592084294</v>
+        <v>1.043360538160951</v>
       </c>
       <c r="J14">
-        <v>1.040355946411568</v>
+        <v>1.010285144243977</v>
       </c>
       <c r="K14">
-        <v>1.046478162809428</v>
+        <v>1.023038209818349</v>
       </c>
       <c r="L14">
-        <v>1.041210937801141</v>
+        <v>1.005705489179632</v>
       </c>
       <c r="M14">
-        <v>1.054454579150774</v>
+        <v>1.024768384329803</v>
       </c>
       <c r="N14">
-        <v>1.041833371185967</v>
+        <v>1.011719865030129</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03389363747668</v>
+        <v>0.9806948117458562</v>
       </c>
       <c r="D15">
-        <v>1.043029516055809</v>
+        <v>1.008780558616934</v>
       </c>
       <c r="E15">
-        <v>1.037762341496298</v>
+        <v>0.9911929063293845</v>
       </c>
       <c r="F15">
-        <v>1.051049047579144</v>
+        <v>1.010605781970411</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039092864161476</v>
+        <v>1.04359498328911</v>
       </c>
       <c r="J15">
-        <v>1.040440084365198</v>
+        <v>1.0107372613676</v>
       </c>
       <c r="K15">
-        <v>1.046555097692649</v>
+        <v>1.023467746331351</v>
       </c>
       <c r="L15">
-        <v>1.041307176480238</v>
+        <v>1.006209981658481</v>
       </c>
       <c r="M15">
-        <v>1.054545724062241</v>
+        <v>1.025259590347573</v>
       </c>
       <c r="N15">
-        <v>1.041917628625142</v>
+        <v>1.012172624211926</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034603307661585</v>
+        <v>0.984578219850003</v>
       </c>
       <c r="D16">
-        <v>1.043591848192205</v>
+        <v>1.01181507137406</v>
       </c>
       <c r="E16">
-        <v>1.038438371296444</v>
+        <v>0.9946848221611966</v>
       </c>
       <c r="F16">
-        <v>1.05169347550986</v>
+        <v>1.014001116452176</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039274218258486</v>
+        <v>1.044939503036872</v>
       </c>
       <c r="J16">
-        <v>1.040929582793371</v>
+        <v>1.013338560861666</v>
       </c>
       <c r="K16">
-        <v>1.047002520611512</v>
+        <v>1.025938167235605</v>
       </c>
       <c r="L16">
-        <v>1.041867216106965</v>
+        <v>1.009113749419897</v>
       </c>
       <c r="M16">
-        <v>1.055075976004962</v>
+        <v>1.028086146463507</v>
       </c>
       <c r="N16">
-        <v>1.04240782219723</v>
+        <v>1.014777617849647</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035048439215466</v>
+        <v>0.9869764006824717</v>
       </c>
       <c r="D17">
-        <v>1.043944464909154</v>
+        <v>1.013690196965418</v>
       </c>
       <c r="E17">
-        <v>1.038862522224616</v>
+        <v>0.9968437237329075</v>
       </c>
       <c r="F17">
-        <v>1.05209768539758</v>
+        <v>1.016099847477747</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039387393133757</v>
+        <v>1.045765633858049</v>
       </c>
       <c r="J17">
-        <v>1.041236438206313</v>
+        <v>1.014944423009057</v>
       </c>
       <c r="K17">
-        <v>1.04728285041639</v>
+        <v>1.027462371105839</v>
       </c>
       <c r="L17">
-        <v>1.042218416856808</v>
+        <v>1.010907321157483</v>
       </c>
       <c r="M17">
-        <v>1.055408368449536</v>
+        <v>1.029831356371864</v>
       </c>
       <c r="N17">
-        <v>1.042715113380055</v>
+        <v>1.016385760505483</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035308068059567</v>
+        <v>0.9883620595623323</v>
       </c>
       <c r="D18">
-        <v>1.044150097337237</v>
+        <v>1.014774022977273</v>
       </c>
       <c r="E18">
-        <v>1.039109956858053</v>
+        <v>0.998091997153878</v>
       </c>
       <c r="F18">
-        <v>1.052333446133116</v>
+        <v>1.017313154197421</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039453195784203</v>
+        <v>1.046241441695112</v>
       </c>
       <c r="J18">
-        <v>1.041415352041223</v>
+        <v>1.01587206049504</v>
       </c>
       <c r="K18">
-        <v>1.047446244401209</v>
+        <v>1.028342519080537</v>
       </c>
       <c r="L18">
-        <v>1.042423231446617</v>
+        <v>1.011943746688416</v>
       </c>
       <c r="M18">
-        <v>1.055602167970978</v>
+        <v>1.030839585252747</v>
       </c>
       <c r="N18">
-        <v>1.042894281293131</v>
+        <v>1.017314715343097</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035396593324674</v>
+        <v>0.9888323429625885</v>
       </c>
       <c r="D19">
-        <v>1.044220205406219</v>
+        <v>1.015141928429101</v>
       </c>
       <c r="E19">
-        <v>1.039194331559707</v>
+        <v>0.9985157979564007</v>
       </c>
       <c r="F19">
-        <v>1.052413833098303</v>
+        <v>1.017725052554854</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039475597113913</v>
+        <v>1.04640266626545</v>
       </c>
       <c r="J19">
-        <v>1.041476345224506</v>
+        <v>1.016186854636009</v>
       </c>
       <c r="K19">
-        <v>1.047501937583435</v>
+        <v>1.028641142731506</v>
       </c>
       <c r="L19">
-        <v>1.042493062034308</v>
+        <v>1.012295518650669</v>
       </c>
       <c r="M19">
-        <v>1.055668235149618</v>
+        <v>1.031181743683352</v>
       </c>
       <c r="N19">
-        <v>1.042955361093731</v>
+        <v>1.017629956527853</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035000681738516</v>
+        <v>0.986720469700308</v>
       </c>
       <c r="D20">
-        <v>1.043906636915481</v>
+        <v>1.013490044893419</v>
       </c>
       <c r="E20">
-        <v>1.038817011273079</v>
+        <v>0.9966132375676152</v>
       </c>
       <c r="F20">
-        <v>1.052054318337936</v>
+        <v>1.015875803209285</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039375272297907</v>
+        <v>1.045677628121698</v>
       </c>
       <c r="J20">
-        <v>1.041203522741683</v>
+        <v>1.014773069985663</v>
       </c>
       <c r="K20">
-        <v>1.047252785852646</v>
+        <v>1.027299764337268</v>
       </c>
       <c r="L20">
-        <v>1.042180739950828</v>
+        <v>1.010715901678282</v>
       </c>
       <c r="M20">
-        <v>1.055372714098107</v>
+        <v>1.029645124122522</v>
       </c>
       <c r="N20">
-        <v>1.042682151171689</v>
+        <v>1.01621416414114</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033713427680339</v>
+        <v>0.9796966913633551</v>
       </c>
       <c r="D21">
-        <v>1.042886690194556</v>
+        <v>1.008001023124182</v>
       </c>
       <c r="E21">
-        <v>1.037590711274143</v>
+        <v>0.9902962084466974</v>
       </c>
       <c r="F21">
-        <v>1.050885405477197</v>
+        <v>1.009733751509589</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039046634177077</v>
+        <v>1.043248127252579</v>
       </c>
       <c r="J21">
-        <v>1.040315729548209</v>
+        <v>1.01006851459009</v>
       </c>
       <c r="K21">
-        <v>1.046441385931506</v>
+        <v>1.022832382749732</v>
       </c>
       <c r="L21">
-        <v>1.0411649394451</v>
+        <v>1.005463784122232</v>
       </c>
       <c r="M21">
-        <v>1.054411012848775</v>
+        <v>1.024533032078297</v>
       </c>
       <c r="N21">
-        <v>1.04179309721005</v>
+        <v>1.011502927737286</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032903990727745</v>
+        <v>0.9751519414737382</v>
       </c>
       <c r="D22">
-        <v>1.042245020569801</v>
+        <v>1.004453756475963</v>
       </c>
       <c r="E22">
-        <v>1.036819994319823</v>
+        <v>0.9862173869681505</v>
       </c>
       <c r="F22">
-        <v>1.050150388054789</v>
+        <v>1.005766533598951</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038838110565842</v>
+        <v>1.041662545912364</v>
       </c>
       <c r="J22">
-        <v>1.039756906494173</v>
+        <v>1.00702285290501</v>
       </c>
       <c r="K22">
-        <v>1.045930164209693</v>
+        <v>1.019937496907183</v>
       </c>
       <c r="L22">
-        <v>1.04052594686246</v>
+        <v>1.002066915509225</v>
       </c>
       <c r="M22">
-        <v>1.053805635287826</v>
+        <v>1.021224613402615</v>
       </c>
       <c r="N22">
-        <v>1.041233480563179</v>
+        <v>1.008452940863271</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033333097487055</v>
+        <v>0.9775739066582967</v>
       </c>
       <c r="D23">
-        <v>1.042585218706962</v>
+        <v>1.006343690581307</v>
       </c>
       <c r="E23">
-        <v>1.037228537145142</v>
+        <v>0.9883902120421114</v>
       </c>
       <c r="F23">
-        <v>1.050540042000098</v>
+        <v>1.007880023286253</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038948832617161</v>
+        <v>1.042508772632642</v>
       </c>
       <c r="J23">
-        <v>1.040053209291477</v>
+        <v>1.008646054223451</v>
       </c>
       <c r="K23">
-        <v>1.046201273341715</v>
+        <v>1.021480592109201</v>
       </c>
       <c r="L23">
-        <v>1.040864719323103</v>
+        <v>1.00387698751647</v>
       </c>
       <c r="M23">
-        <v>1.054126625564379</v>
+        <v>1.022987741907761</v>
       </c>
       <c r="N23">
-        <v>1.041530204144441</v>
+        <v>1.010078447313767</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035022261313609</v>
+        <v>0.9868361544551416</v>
       </c>
       <c r="D24">
-        <v>1.043923729889997</v>
+        <v>1.013580515530246</v>
       </c>
       <c r="E24">
-        <v>1.038837575605967</v>
+        <v>0.9967174181820111</v>
       </c>
       <c r="F24">
-        <v>1.052073914070113</v>
+        <v>1.015977072611234</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03938074983169</v>
+        <v>1.045717412817356</v>
       </c>
       <c r="J24">
-        <v>1.041218396038545</v>
+        <v>1.014850524894533</v>
       </c>
       <c r="K24">
-        <v>1.047266371098187</v>
+        <v>1.027373266760357</v>
       </c>
       <c r="L24">
-        <v>1.04219776463032</v>
+        <v>1.010802425910741</v>
       </c>
       <c r="M24">
-        <v>1.055388825009796</v>
+        <v>1.02972930443524</v>
       </c>
       <c r="N24">
-        <v>1.042697045590339</v>
+        <v>1.016291729044865</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036982099081089</v>
+        <v>0.9970723318638046</v>
       </c>
       <c r="D25">
-        <v>1.045475314051032</v>
+        <v>1.021592784778393</v>
       </c>
       <c r="E25">
-        <v>1.040706133824381</v>
+        <v>1.005953382251691</v>
       </c>
       <c r="F25">
-        <v>1.053853572677482</v>
+        <v>1.024950880539186</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039873714851434</v>
+        <v>1.04920453784094</v>
       </c>
       <c r="J25">
-        <v>1.042567796739132</v>
+        <v>1.021698627024709</v>
       </c>
       <c r="K25">
-        <v>1.048497743828878</v>
+        <v>1.033864899137803</v>
       </c>
       <c r="L25">
-        <v>1.043743323930611</v>
+        <v>1.01845997729899</v>
       </c>
       <c r="M25">
-        <v>1.05685042505555</v>
+        <v>1.037173831135472</v>
       </c>
       <c r="N25">
-        <v>1.044048362594699</v>
+        <v>1.023149556265555</v>
       </c>
     </row>
   </sheetData>
